--- a/27 задание/01 задание/A.xlsx
+++ b/27 задание/01 задание/A.xlsx
@@ -5,21 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ege\27 задание\01 задание\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EGE\27 задание\01 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,594 +653,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>A!$A$1:$A$96</c:f>
+              <c:f>A!$A$1:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.33272512019483103</c:v>
+                  <c:v>-1.1167618015762599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.45433257692672302</c:v>
+                  <c:v>-5.3618924573193203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.68731707503074402</c:v>
+                  <c:v>-5.5339231896168704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.27692441200564499</c:v>
+                  <c:v>-7.19741149874352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.53072083709650197</c:v>
+                  <c:v>-1.84145246499712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.89940852009431405</c:v>
+                  <c:v>-3.30113009021083</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.66901141748367099</c:v>
+                  <c:v>-2.1672534652995501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.63009905035483404</c:v>
+                  <c:v>-5.1457297812670202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.37561574260887998</c:v>
+                  <c:v>-0.90697669737555997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.21505419048813801</c:v>
+                  <c:v>-8.62638234915417</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.5968815856460199</c:v>
+                  <c:v>-3.0116794571609602</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.94211072710770405</c:v>
+                  <c:v>-2.0162060895910998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.77359351186348402</c:v>
+                  <c:v>-6.1058636324295996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55803926248472302</c:v>
+                  <c:v>-5.8843341250867098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.21813574289293</c:v>
+                  <c:v>-2.35794983089834</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0190880931983901</c:v>
+                  <c:v>-8.2789390416204593</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.66945415822231E-2</c:v>
+                  <c:v>-2.47042464392662</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.87735078266885302</c:v>
+                  <c:v>-2.0910306340721201</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.63106108524482</c:v>
+                  <c:v>-3.9816066656454598</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.5966245192075501</c:v>
+                  <c:v>-2.5764666684204101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.13575889263494401</c:v>
+                  <c:v>-3.9092602790578899</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.48724974441240498</c:v>
+                  <c:v>-6.2704378312052604</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3837388584609899E-2</c:v>
+                  <c:v>-2.4333122502282301</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.93743301216563002</c:v>
+                  <c:v>-3.20191345681812</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.35249085338194402</c:v>
+                  <c:v>-4.6429241262589098</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.46227876066466</c:v>
+                  <c:v>-4.3243540591775602</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.89496079962875896</c:v>
+                  <c:v>-7.3605861625982199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.50269719899244303</c:v>
+                  <c:v>-6.9103117255922202</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.3299217892593105E-2</c:v>
+                  <c:v>-2.6094148720813899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.21509126055983999</c:v>
+                  <c:v>-3.4652915802248501</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.3188268268260199</c:v>
+                  <c:v>-2.4152571684618298</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.81579755440861002</c:v>
+                  <c:v>-2.5882866185081101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.7489748620077701</c:v>
+                  <c:v>-7.5381046295416603</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.78851935027092</c:v>
+                  <c:v>-5.9712818371014498</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.2110245597878101E-2</c:v>
+                  <c:v>-7.4727128409988399</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.0259699097466499</c:v>
+                  <c:v>-5.1399205316092704</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.6409048963024699</c:v>
+                  <c:v>-3.4633181885649398</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5951809844628299E-2</c:v>
+                  <c:v>-6.4100895433222798</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.85981173951255296</c:v>
+                  <c:v>-4.46131806393704</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.9277537086501999E-2</c:v>
+                  <c:v>-7.29074474400994</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.4113932677115499</c:v>
+                  <c:v>-6.3706453881818401</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4113932677115499</c:v>
+                  <c:v>-2.2155919404471001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.46875749253389</c:v>
+                  <c:v>-2.9849358459095998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.5533684241575201</c:v>
+                  <c:v>-3.2776675239261701</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.59812681911499</c:v>
+                  <c:v>-6.0702712637853704</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.62374105233748</c:v>
+                  <c:v>-2.5900634734847698</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.6481803576999301</c:v>
+                  <c:v>-5.5120814752132903</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6544946184207501</c:v>
+                  <c:v>-6.2008094037517898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.65470917721777</c:v>
+                  <c:v>-2.9426265429176302</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.7545300466773199</c:v>
+                  <c:v>-6.8706294191261801</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.8088345136100501</c:v>
+                  <c:v>-1.7979776445585101</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9440083680537601</c:v>
+                  <c:v>-2.1774853862496499</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.96209370572822</c:v>
+                  <c:v>-3.3153547774082002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.96970541587313</c:v>
+                  <c:v>-5.6377644574208903</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.97891877034438</c:v>
+                  <c:v>-2.6202998633848398</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0425762268663701</c:v>
+                  <c:v>-6.4323020092380396</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0521675102143999</c:v>
+                  <c:v>-4.88116510187771</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.0903142311603098</c:v>
+                  <c:v>-6.2605788084718696</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.10832368255672</c:v>
+                  <c:v>-7.3521527985867703</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.1170560433356398</c:v>
+                  <c:v>-6.7198679453291401</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.25516460321932</c:v>
+                  <c:v>-6.0163888038541904</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.2799720725635901</c:v>
+                  <c:v>-3.7089895580574201</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.2816472633359499</c:v>
+                  <c:v>-5.16454284589223</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.2850270932423999</c:v>
+                  <c:v>-6.0766210095525999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.39798707174057</c:v>
+                  <c:v>-4.3676588481616703</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.4234784032018899</c:v>
+                  <c:v>-5.6995964804607402</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.6387673191315102</c:v>
+                  <c:v>-5.9057187201027599</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.6545232708539701</c:v>
+                  <c:v>-4.0437260603494396</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.7623436509985999</c:v>
+                  <c:v>-5.2696949242234004</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.7728095557539998</c:v>
+                  <c:v>-3.3062708924594402</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.7786043720449398</c:v>
+                  <c:v>-3.00012331189517</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.7910680483284902</c:v>
+                  <c:v>-1.41192295702982</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.7914561643473301</c:v>
+                  <c:v>-6.1513701471412396</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.7924116827483698</c:v>
+                  <c:v>-2.5954260331983998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.80491843370636</c:v>
+                  <c:v>-4.4109488048133496</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.82321179784276</c:v>
+                  <c:v>-5.8602620933464697</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.8541736404604801</c:v>
+                  <c:v>-7.3339387816218</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.97513027442348</c:v>
+                  <c:v>-6.6037502614096102</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.92875968731847</c:v>
+                  <c:v>-2.6671182108540199</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.2464652599759698</c:v>
+                  <c:v>-2.2787922974595798</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.6643260184515101</c:v>
+                  <c:v>-7.3828139677943403</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.3207396501292599</c:v>
+                  <c:v>-2.5364713496658902</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.3551823985645899</c:v>
+                  <c:v>-3.31972959932784</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.8822990863984601</c:v>
+                  <c:v>-2.8290524422861201</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.67836329019008</c:v>
+                  <c:v>-3.42709531585154</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.6322323877359</c:v>
+                  <c:v>-6.2561599937253796</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.40405687718079</c:v>
+                  <c:v>-6.0907948406082104</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.66958836639113</c:v>
+                  <c:v>-7.4400538838803003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.9005558334303201</c:v>
+                  <c:v>-5.8469118227361498</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.3922624153374201</c:v>
+                  <c:v>-2.4844098126494498</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.01463768508175</c:v>
+                  <c:v>-6.10584449996675</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.6721348662602198</c:v>
+                  <c:v>-1.01134454921988</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.9276788890313399</c:v>
+                  <c:v>-8.5971148159365391</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.15336019624743</c:v>
+                  <c:v>-2.5562771488656599</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.0802612749867198</c:v>
+                  <c:v>-5.1832631118912103</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.82295805706244</c:v>
+                  <c:v>-6.0800077165568798</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-5.0628929797563904</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-3.26848438461387</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-6.8698611978644699</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-6.9062030906158496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>A!$B$1:$B$96</c:f>
+              <c:f>A!$B$1:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.7286976051060201</c:v>
+                  <c:v>11.8313167976839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77418686211015497</c:v>
+                  <c:v>0.24753603296880999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.83181073399505</c:v>
+                  <c:v>1.34147985164905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.50429123422458</c:v>
+                  <c:v>1.3096229401519299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.31719050307274</c:v>
+                  <c:v>13.0836146265663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1323191549132801</c:v>
+                  <c:v>12.2156303635938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0253605230567</c:v>
+                  <c:v>10.014689883924399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85794261924112802</c:v>
+                  <c:v>13.453809106994299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6163215561205</c:v>
+                  <c:v>12.433477348372501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54835572026950496</c:v>
+                  <c:v>-0.44752580481915</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1735767104763202</c:v>
+                  <c:v>10.9145814212476</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33409847665633902</c:v>
+                  <c:v>12.336733904543401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0530085444675601</c:v>
+                  <c:v>0.80966674391854998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2232708907396099</c:v>
+                  <c:v>-0.59323861304506997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.68718015329448501</c:v>
+                  <c:v>10.032233766742101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20263912192310499</c:v>
+                  <c:v>2.9508412770691201</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42565988512825198</c:v>
+                  <c:v>12.0979375849622</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8545023325851899</c:v>
+                  <c:v>12.6918988413611</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.40178435867067</c:v>
+                  <c:v>13.410340993330699</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1006073880474401</c:v>
+                  <c:v>14.2036576932346</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.33079484732077</c:v>
+                  <c:v>11.8956751966568</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9869076444024401</c:v>
+                  <c:v>-1.11445496396989</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.179347599147543</c:v>
+                  <c:v>11.4008392353315</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6070142698562599</c:v>
+                  <c:v>12.137337624272901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.23759188952672899</c:v>
+                  <c:v>0.99969686198967</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.70495918250546</c:v>
+                  <c:v>11.826569555434</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.49840792930740602</c:v>
+                  <c:v>0.73686686889511999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.1116980758394601</c:v>
+                  <c:v>1.8015325502364901</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.6114612447572898</c:v>
+                  <c:v>12.1354223672109</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.375902822083791</c:v>
+                  <c:v>12.1227597279417</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.35942605639083502</c:v>
+                  <c:v>11.7454829350627</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0755585533783101</c:v>
+                  <c:v>10.8801720056183</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.27929265492489</c:v>
+                  <c:v>1.02365627476192</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9783426374728299</c:v>
+                  <c:v>1.1235130190284399</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.6099038882075296E-2</c:v>
+                  <c:v>0.70209169574952002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.17324678719103501</c:v>
+                  <c:v>-0.19841263866961001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.23444609583310699</c:v>
+                  <c:v>13.398730825288601</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.44826667992126</c:v>
+                  <c:v>1.7626718234066301</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.20991269540080401</c:v>
+                  <c:v>12.3534833758057</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.84208410635161</c:v>
+                  <c:v>-7.1219726959669993E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.7989049638511103</c:v>
+                  <c:v>-0.12512034183540999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.0692796907903901</c:v>
+                  <c:v>11.8384243920922</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.4851539889105201</c:v>
+                  <c:v>12.893333492581901</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.2557220319362097</c:v>
+                  <c:v>13.5388451564421</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.2765705054556804</c:v>
+                  <c:v>12.531236617694599</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.6388567859368397</c:v>
+                  <c:v>12.8093971349568</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.6450871255052899</c:v>
+                  <c:v>-0.56183098068790005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.98277077248044</c:v>
+                  <c:v>0.25253213816879999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.8026239690227701</c:v>
+                  <c:v>10.8834889574829</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.88853326624037</c:v>
+                  <c:v>1.2113268060742</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.8361076329171704</c:v>
+                  <c:v>13.5008656186455</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.76989586314353</c:v>
+                  <c:v>12.1337042944514</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.9012014092851102</c:v>
+                  <c:v>11.3556627753604</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.5849991563835797</c:v>
+                  <c:v>-1.4199494078280701</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.4411112663412</c:v>
+                  <c:v>11.558039782182499</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.7095360135622997</c:v>
+                  <c:v>-0.49375883121182002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.4947094192562602</c:v>
+                  <c:v>0.17234148756635001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.8282215690111601</c:v>
+                  <c:v>1.5647638161600199</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.7716671987708299</c:v>
+                  <c:v>0.84635361585088997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.1183074265280499</c:v>
+                  <c:v>1.3815293400623201</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.2190253187927702</c:v>
+                  <c:v>0.36785044906804998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.8669261202964904</c:v>
+                  <c:v>12.255667173160001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.8558519699910501</c:v>
+                  <c:v>0.14839596739541999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.3988375547915299</c:v>
+                  <c:v>0.12539477746043001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.0720544397849903</c:v>
+                  <c:v>0.82568243690748999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.0654755499202802</c:v>
+                  <c:v>1.20462275560719</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.0420077889604098</c:v>
+                  <c:v>0.35655145175243003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.4177772873357704</c:v>
+                  <c:v>12.6562292903055</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.7911806767623899</c:v>
+                  <c:v>0.58424761998982999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.2385480068487196</c:v>
+                  <c:v>12.1277457929055</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.6311437259770898</c:v>
+                  <c:v>10.4179461604548</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.2069349551543498</c:v>
+                  <c:v>12.4646131964225</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.8615063837997203</c:v>
+                  <c:v>1.2293798670957099</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.4009968550588199</c:v>
+                  <c:v>13.491885160844699</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.0407157661337498</c:v>
+                  <c:v>12.875660969093801</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.4261197039471796</c:v>
+                  <c:v>-0.26190878621351998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.5531916378178199</c:v>
+                  <c:v>0.10335253259858999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.6406725401562201</c:v>
+                  <c:v>0.19430068769098</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.8612058518227999</c:v>
+                  <c:v>11.9934438925842</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.1149651203127799</c:v>
+                  <c:v>11.764609242855499</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.1593226909029202</c:v>
+                  <c:v>0.46521235537323002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.6547783507923004</c:v>
+                  <c:v>11.9544271901397</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.50279525768897</c:v>
+                  <c:v>11.5629625308641</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.6173317037320603</c:v>
+                  <c:v>15.679493033614399</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.8288247087428804</c:v>
+                  <c:v>12.727676147625001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.5539036030883699</c:v>
+                  <c:v>0.30753302344243</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.8135102895466</c:v>
+                  <c:v>0.44695921431009999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.7055644565959098</c:v>
+                  <c:v>0.11694764982853</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.5035272884874198</c:v>
+                  <c:v>0.49685307558919001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.2320191126690903</c:v>
+                  <c:v>13.002821566884901</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.0425781322885799</c:v>
+                  <c:v>1.72239201556618</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.4890974006191504</c:v>
+                  <c:v>11.5804846843749</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.4641380065629201</c:v>
+                  <c:v>0.88765423018019995</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.4061431164882099</c:v>
+                  <c:v>11.4018065083312</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.2626422241783004</c:v>
+                  <c:v>-0.43609479037998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.9404173325442997</c:v>
+                  <c:v>0.47964444808301998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.89705179229009002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11.9880105734713</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.34117127581026002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.72714480463022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,7 +1272,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C8E-4983-98F9-E442C2B02FFE}"/>
+              <c16:uniqueId val="{00000000-FFAC-4A05-98C6-9871A9E1FD5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1264,11 +1284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438770367"/>
-        <c:axId val="438763711"/>
+        <c:axId val="1597391855"/>
+        <c:axId val="1597396847"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438770367"/>
+        <c:axId val="1597391855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,12 +1345,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438763711"/>
+        <c:crossAx val="1597396847"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438763711"/>
+        <c:axId val="1597396847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1407,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438770367"/>
+        <c:crossAx val="1597391855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1996,16 +2016,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2026,16 +2046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2044,17 +2064,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9582150" y="12220575"/>
-          <a:ext cx="0" cy="6086475"/>
+          <a:off x="6667500" y="3028950"/>
+          <a:ext cx="5619750" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln w="76200"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2073,329 +2089,7 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>104595</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>37965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>362355</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>38445</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="27" name="Рукописный ввод 26"/>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5590995" y="13753965"/>
-            <a:ext cx="3915360" cy="762480"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="27" name="Рукописный ввод 26"/>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5579115" y="13742085"/>
-              <a:ext cx="3939120" cy="786240"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>418995</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>19185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228795</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>133785</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="39" name="Рукописный ввод 38"/>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="10782195" y="16211685"/>
-            <a:ext cx="2248200" cy="876600"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="39" name="Рукописный ввод 38"/>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10770315" y="16199805"/>
-              <a:ext cx="2271960" cy="900360"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="1920" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="1080" units="cm"/>
-          <inkml:channel name="T" type="integer" max="2.14748E9" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="36.22641" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="36" units="1/cm"/>
-          <inkml:channelProperty channel="T" name="resolution" value="1" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-01-13T11:34:17.050"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.06667" units="cm"/>
-      <inkml:brushProperty name="height" value="0.06667" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:traceGroup>
-    <inkml:annotationXML>
-      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-        <emma:interpretation id="{62FEABB7-6D40-42B8-B1ED-6525C9B20AD9}" emma:medium="tactile" emma:mode="ink">
-          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="15462,38210 26350,37861 26418,39973 15530,40322"/>
-        </emma:interpretation>
-      </emma:emma>
-    </inkml:annotationXML>
-    <inkml:traceGroup>
-      <inkml:annotationXML>
-        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-          <emma:interpretation id="{CB76729A-479B-4161-AB29-158C2A56C9FC}" emma:medium="tactile" emma:mode="ink">
-            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="15462,38210 26350,37861 26418,39973 15530,40322" alignmentLevel="1"/>
-          </emma:interpretation>
-        </emma:emma>
-      </inkml:annotationXML>
-      <inkml:traceGroup>
-        <inkml:annotationXML>
-          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-            <emma:interpretation id="{712925AE-0B94-40DD-9DCB-D75108BF4319}" emma:medium="tactile" emma:mode="ink">
-              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="15462,38210 26350,37861 26418,39973 15530,40322"/>
-            </emma:interpretation>
-          </emma:emma>
-        </inkml:annotationXML>
-        <inkml:traceGroup>
-          <inkml:annotationXML>
-            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-              <emma:interpretation id="{9B18D6EC-FAB7-4FBE-A193-443D7FC261FC}" emma:medium="tactile" emma:mode="ink">
-                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="15462,38210 18768,38104 18835,40216 15530,40322"/>
-              </emma:interpretation>
-              <emma:one-of disjunction-type="recognition" id="oneOf0">
-                <emma:interpretation id="interp0" emma:lang="" emma:confidence="1">
-                  <emma:literal/>
-                </emma:interpretation>
-              </emma:one-of>
-            </emma:emma>
-          </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0">1562 0 0,'-80'80'63,"27"-27"-63,0 0 15,0-1-15,-26 28 0,26-27 16,-26 0-16,-1 0 16,1 0-1,-27 52-15,27-52 16,-27 53-16,27-26 0,-27 25 15,26-25 1,1-1-16,26 0 16,-26 1-16,52-54 15,-26 27-15,27-26 16,-1-1-16,27 1 16,-26-27-16,26 26 15,-27-26-15</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-826.5288">106-635 0,'53'0'15,"-26"53"1,79 27-16,-27-27 16,27 52-16,0-52 15,26 80 1,-26-28-16,52 54 16,1-27-16,0 27 0,-53-53 15,26 53 1,-53-53-16,1 0 0,26-1 15,-53 28-15,0-54 16,-1-26-16,-25 0 16,-1-53-1,1 26-15</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1941.4435">2488 424 0,'0'26'62,"0"1"-30,26-1-32,27 1 15,-27-1-15,27 0 16,-26 1-16,26-1 15,-27-26-15,318 159 110,-317-159-79,-27 27 16,26-27-16</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1086.4527">2488 344 0,'0'0'31,"79"-26"63,0-54-79,1 28-15,26-1 16,-27-27-16,-26 27 16,53 0-16,-80 1 15,27 25-15,-26 1 31,-1 26-31,-26-27 0,26 27 16,1-26 15</inkml:trace>
-        </inkml:traceGroup>
-        <inkml:traceGroup>
-          <inkml:annotationXML>
-            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-              <emma:interpretation id="{F1F2BC9B-EDED-4289-BCF1-DCDF397500E1}" emma:medium="tactile" emma:mode="ink">
-                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="19693,38411 21273,38360 21325,39952 19744,40002"/>
-              </emma:interpretation>
-              <emma:one-of disjunction-type="recognition" id="oneOf1">
-                <emma:interpretation id="interp1" emma:lang="" emma:confidence="1">
-                  <emma:literal>1</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp2" emma:lang="" emma:confidence="0">
-                  <emma:literal>I</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp3" emma:lang="" emma:confidence="0">
-                  <emma:literal>1-</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp4" emma:lang="" emma:confidence="0">
-                  <emma:literal>l</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp5" emma:lang="" emma:confidence="0">
-                  <emma:literal>1.</emma:literal>
-                </emma:interpretation>
-              </emma:one-of>
-            </emma:emma>
-          </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2996.1369">4181 106 0,'26'0'47,"-26"-26"-31,27 26-1,52-27-15,-26-26 16,0 27-16,26-27 16,1 0-16,-27-26 15,0 52-15,-27-26 16,1 27-16,-1-27 15,0 27-15,-26-1 16,0 1 15,0 52 32,0 1-48,0 25-15,0 1 16,0 27 0,-26-27-16,26-27 15,-26 344 48,26-343-63,0 52 0,0-26 15,0 27-15,0-27 16,0-1 0,0-25-16,26 26 0,-26-27 15,0 1-15,0-1 32,0 1 30,0-1-46,0 1-16,0-1 15,0 1 1,0-1-16</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3666.2575">4604 1085 0,'0'27'94,"80"-27"-94,-1 0 15,27 0 1,0 0-16,-27 0 16,53 0-16,-52 0 0,26 0 15,-54 0-15,-25 0 16,26 0-1,-27 0 1,1 0-16,-1 0 16,1 0-16,-1 0 15,1 0 1,-1 0 0,1 0-1,-1 0 16,0 0-31,1 0 16</inkml:trace>
-        </inkml:traceGroup>
-        <inkml:traceGroup>
-          <inkml:annotationXML>
-            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-              <emma:interpretation id="{BC6FF7A6-C64E-474C-874A-EF908A285AB8}" emma:medium="tactile" emma:mode="ink">
-                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="24738,38364 26365,38311 26407,39628 24780,39680"/>
-              </emma:interpretation>
-              <emma:one-of disjunction-type="recognition" id="oneOf2">
-                <emma:interpretation id="interp6" emma:lang="" emma:confidence="1">
-                  <emma:literal/>
-                </emma:interpretation>
-              </emma:one-of>
-            </emma:emma>
-          </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-14768.4364">9208-476 0,'26'27'0,"27"26"16,0-1-16,-26 1 0,26-26 15,-27 52-15,1-52 16,-1 52-16,1-26 16,-1 0-16,0 0 15,1 0 1,-27-27-16,26 27 15,-26-27-15,27 1 0,-27 26 16,26 0 0,1-27-16,-1 27 15,-26 0-15,53 26 16,-26-26-16,-27 0 16,26-26-16,-26-1 15,0 1 1,26-27-16,-26 26 0,0 1 47</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-14040.6555">9684-79 0,'-26'0'47,"-1"0"-47,-370 265 93</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-12413.3538">9922 424 0,'27'0'46,"-1"0"-30,27 0-16,0 0 0,-26 0 16,52 0-16,-26 0 15,0 0-15,-27 0 16,27 0-16,-26 0 16,-1 0-16,1 0 15,-1 0 1</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-13125.8154">9949 80 0,'26'0'0,"1"0"47,79 0 0,-80 0-31,0 0-16,1 0 15,26 0-15,0 0 16,-27 0-16,27 0 16,-26 0-16,-1-27 15,1 27-15</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-11318.3038">10663 186 0,'27'0'0,"-27"-27"32,26 27-17,1-26 1,-1 26 15,-26-27-15,27 1-16,-27-1 15,26 27-15,-26-53 0,26 27 16,-26-1 0,0 1-16,0 0 15,0-1 1,0 80 109,0 26-109,0-52-16,0 26 0,0-27 15,0 27 1,0-26-16,0 25 15,0-25-15,0 26 16,0-27-16,0 1 16,0-1-16,0 1 15,0-1-15,0 1 16,0-1-16,0 1 16,0-1-1,0 0-15,0 1 16,0-1-16,0 1 15,0-1 1,0 1 0,27-1-1</inkml:trace>
-        </inkml:traceGroup>
-      </inkml:traceGroup>
-    </inkml:traceGroup>
-  </inkml:traceGroup>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="1920" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="1080" units="cm"/>
-          <inkml:channel name="T" type="integer" max="2.14748E9" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="36.22641" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="36" units="1/cm"/>
-          <inkml:channelProperty channel="T" name="resolution" value="1" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-01-13T11:34:22.479"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.06667" units="cm"/>
-      <inkml:brushProperty name="height" value="0.06667" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:traceGroup>
-    <inkml:annotationXML>
-      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-        <emma:interpretation id="{54731B50-BC18-4E89-8BAE-0011F0EBBE9C}" emma:medium="tactile" emma:mode="ink">
-          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="30010,45010 36257,45234 36170,47644 29924,47420"/>
-        </emma:interpretation>
-      </emma:emma>
-    </inkml:annotationXML>
-    <inkml:traceGroup>
-      <inkml:annotationXML>
-        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-          <emma:interpretation id="{24FCB69B-0617-49DF-9B56-6F0AD287A276}" emma:medium="tactile" emma:mode="ink">
-            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="30010,45010 36257,45234 36170,47644 29924,47420" alignmentLevel="1"/>
-          </emma:interpretation>
-        </emma:emma>
-      </inkml:annotationXML>
-      <inkml:traceGroup>
-        <inkml:annotationXML>
-          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-            <emma:interpretation id="{761FBF57-5F23-44D8-B58C-7FDB8DA26AAB}" emma:medium="tactile" emma:mode="ink">
-              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="30010,45010 36257,45234 36170,47644 29924,47420"/>
-            </emma:interpretation>
-          </emma:emma>
-        </inkml:annotationXML>
-        <inkml:traceGroup>
-          <inkml:annotationXML>
-            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-              <emma:interpretation id="{B4EEE90A-545F-465D-B24B-9FEEEAF6D3CE}" emma:medium="tactile" emma:mode="ink">
-                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="30010,45010 33645,45140 33559,47550 29924,47420"/>
-              </emma:interpretation>
-              <emma:one-of disjunction-type="recognition" id="oneOf0">
-                <emma:interpretation id="interp0" emma:lang="" emma:confidence="1">
-                  <emma:literal/>
-                </emma:interpretation>
-              </emma:one-of>
-            </emma:emma>
-          </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0">1270 0 0,'-53'26'46,"-52"27"-46,-1 0 16,0 27-16,-26-1 16,-1 27-16,27-27 15,-26-26 1,53 53-16,-1-27 16,1-52-16,26 26 0,27 0 15,-1-27 63,-26 53-46</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-909.8388">662-714 0,'106'185'32,"-54"-106"-32,1 27 0,0-27 15,27 54-15,-27-1 16,0 0-16,-27 27 16,0-53-1,1 0-15,-27 0 16,0-1-16,0 28 15,0-1-15,0-26 16,26 53-16,-26 26 16,27-79-16,-27-1 0,0-52 15,0-26-15</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1140.1498">2461-423 0,'0'26'15,"26"27"1,27 26-16,27 1 0,-1 26 31,0-53-31,27 52 0,-26-25 16,25-27-16,-25 0 15,-27 0-15,26-27 16,-26 0-16,0 1 16,26-1-16,-52 27 15,26-26-15,-27-1 16,1 27-16,26-26 15,-345 211 110,134-238-125,-266 53 16,186-27 0,53 0-16,26-26 15,106 0-15,27 0 16</inkml:trace>
-        </inkml:traceGroup>
-        <inkml:traceGroup>
-          <inkml:annotationXML>
-            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-              <emma:interpretation id="{2E119DC7-596F-4965-9304-03B24900107D}" emma:medium="tactile" emma:mode="ink">
-                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="35038,45364 36250,45408 36189,47112 34976,47069"/>
-              </emma:interpretation>
-              <emma:one-of disjunction-type="recognition" id="oneOf1">
-                <emma:interpretation id="interp1" emma:lang="" emma:confidence="1">
-                  <emma:literal>1</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp2" emma:lang="" emma:confidence="0">
-                  <emma:literal>I</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp3" emma:lang="" emma:confidence="0">
-                  <emma:literal>l</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp4" emma:lang="" emma:confidence="0">
-                  <emma:literal>L</emma:literal>
-                </emma:interpretation>
-                <emma:interpretation id="interp5" emma:lang="" emma:confidence="0">
-                  <emma:literal>.</emma:literal>
-                </emma:interpretation>
-              </emma:one-of>
-            </emma:emma>
-          </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2760.3736">5027 1323 0,'27'0'47,"26"0"-31,26 0-16,80 0 15,-27 0-15,0-27 16,27 27 0,-53-26-16,26 26 15,-26-26-15,-53 26 0,-26 0 16,-1 0-1,0 0-15,-26-27 16</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2047.1221">5318 132 0,'-26'0'16,"26"-26"31,26-1-31,1 1-16,26-27 15,-27 0 1,-26 0-16,0 0 15,0-26-15,0 26 16,0 26-16,0 1 16,-26 0-16,26 52 62,-27 27-46,27 26-16,0 27 15,0 26-15,0-26 0,0 53 16,0 423 47,0-555-48,0 25-15,0-25 16,27 26-16,-27-27 0,26 1 15,1 26-15,-1-27 16,1 1 15</inkml:trace>
-        </inkml:traceGroup>
-      </inkml:traceGroup>
-    </inkml:traceGroup>
-  </inkml:traceGroup>
-</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2661,800 +2355,812 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-0.33272512019483103</v>
+        <v>-1.1167618015762599</v>
       </c>
       <c r="B1">
-        <v>1.7286976051060201</v>
+        <v>11.8313167976839</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-0.45433257692672302</v>
+        <v>-5.3618924573193203</v>
       </c>
       <c r="B2">
-        <v>0.77418686211015497</v>
+        <v>0.24753603296880999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.68731707503074402</v>
+        <v>-5.5339231896168704</v>
       </c>
       <c r="B3">
-        <v>1.83181073399505</v>
+        <v>1.34147985164905</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-0.27692441200564499</v>
+        <v>-7.19741149874352</v>
       </c>
       <c r="B4">
-        <v>1.50429123422458</v>
+        <v>1.3096229401519299</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-0.53072083709650197</v>
+        <v>-1.84145246499712</v>
       </c>
       <c r="B5">
-        <v>1.31719050307274</v>
+        <v>13.0836146265663</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-0.89940852009431405</v>
+        <v>-3.30113009021083</v>
       </c>
       <c r="B6">
-        <v>1.1323191549132801</v>
+        <v>12.2156303635938</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-0.66901141748367099</v>
+        <v>-2.1672534652995501</v>
       </c>
       <c r="B7">
-        <v>1.0253605230567</v>
+        <v>10.014689883924399</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-0.63009905035483404</v>
+        <v>-5.1457297812670202</v>
       </c>
       <c r="B8">
-        <v>0.85794261924112802</v>
+        <v>13.453809106994299</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-0.37561574260887998</v>
+        <v>-0.90697669737555997</v>
       </c>
       <c r="B9">
-        <v>1.6163215561205</v>
+        <v>12.433477348372501</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-0.21505419048813801</v>
+        <v>-8.62638234915417</v>
       </c>
       <c r="B10">
-        <v>0.54835572026950496</v>
+        <v>-0.44752580481915</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-1.5968815856460199</v>
+        <v>-3.0116794571609602</v>
       </c>
       <c r="B11">
-        <v>2.1735767104763202</v>
+        <v>10.9145814212476</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-0.94211072710770405</v>
+        <v>-2.0162060895910998</v>
       </c>
       <c r="B12">
-        <v>0.33409847665633902</v>
+        <v>12.336733904543401</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-0.77359351186348402</v>
+        <v>-6.1058636324295996</v>
       </c>
       <c r="B13">
-        <v>2.0530085444675601</v>
+        <v>0.80966674391854998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.55803926248472302</v>
+        <v>-5.8843341250867098</v>
       </c>
       <c r="B14">
-        <v>1.2232708907396099</v>
+        <v>-0.59323861304506997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-1.21813574289293</v>
+        <v>-2.35794983089834</v>
       </c>
       <c r="B15">
-        <v>0.68718015329448501</v>
+        <v>10.032233766742101</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-1.0190880931983901</v>
+        <v>-8.2789390416204593</v>
       </c>
       <c r="B16">
-        <v>0.20263912192310499</v>
+        <v>2.9508412770691201</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3.66945415822231E-2</v>
+        <v>-2.47042464392662</v>
       </c>
       <c r="B17">
-        <v>0.42565988512825198</v>
+        <v>12.0979375849622</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.87735078266885302</v>
+        <v>-2.0910306340721201</v>
       </c>
       <c r="B18">
-        <v>1.8545023325851899</v>
+        <v>12.6918988413611</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-1.63106108524482</v>
+        <v>-3.9816066656454598</v>
       </c>
       <c r="B19">
-        <v>1.40178435867067</v>
+        <v>13.410340993330699</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-1.5966245192075501</v>
+        <v>-2.5764666684204101</v>
       </c>
       <c r="B20">
-        <v>1.1006073880474401</v>
+        <v>14.2036576932346</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.13575889263494401</v>
+        <v>-3.9092602790578899</v>
       </c>
       <c r="B21">
-        <v>2.33079484732077</v>
+        <v>11.8956751966568</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.48724974441240498</v>
+        <v>-6.2704378312052604</v>
       </c>
       <c r="B22">
-        <v>1.9869076444024401</v>
+        <v>-1.11445496396989</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.3837388584609899E-2</v>
+        <v>-2.4333122502282301</v>
       </c>
       <c r="B23">
-        <v>0.179347599147543</v>
+        <v>11.4008392353315</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-0.93743301216563002</v>
+        <v>-3.20191345681812</v>
       </c>
       <c r="B24">
-        <v>2.6070142698562599</v>
+        <v>12.137337624272901</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.35249085338194402</v>
+        <v>-4.6429241262589098</v>
       </c>
       <c r="B25">
-        <v>0.23759188952672899</v>
+        <v>0.99969686198967</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.46227876066466</v>
+        <v>-4.3243540591775602</v>
       </c>
       <c r="B26">
-        <v>1.70495918250546</v>
+        <v>11.826569555434</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.89496079962875896</v>
+        <v>-7.3605861625982199</v>
       </c>
       <c r="B27">
-        <v>0.49840792930740602</v>
+        <v>0.73686686889511999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-0.50269719899244303</v>
+        <v>-6.9103117255922202</v>
       </c>
       <c r="B28">
-        <v>2.1116980758394601</v>
+        <v>1.8015325502364901</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>8.3299217892593105E-2</v>
+        <v>-2.6094148720813899</v>
       </c>
       <c r="B29">
-        <v>2.6114612447572898</v>
+        <v>12.1354223672109</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-0.21509126055983999</v>
+        <v>-3.4652915802248501</v>
       </c>
       <c r="B30">
-        <v>0.375902822083791</v>
+        <v>12.1227597279417</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-1.3188268268260199</v>
+        <v>-2.4152571684618298</v>
       </c>
       <c r="B31">
-        <v>0.35942605639083502</v>
+        <v>11.7454829350627</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.81579755440861002</v>
+        <v>-2.5882866185081101</v>
       </c>
       <c r="B32">
-        <v>1.0755585533783101</v>
+        <v>10.8801720056183</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-1.7489748620077701</v>
+        <v>-7.5381046295416603</v>
       </c>
       <c r="B33">
-        <v>1.27929265492489</v>
+        <v>1.02365627476192</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-1.78851935027092</v>
+        <v>-5.9712818371014498</v>
       </c>
       <c r="B34">
-        <v>1.9783426374728299</v>
+        <v>1.1235130190284399</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5.2110245597878101E-2</v>
+        <v>-7.4727128409988399</v>
       </c>
       <c r="B35">
-        <v>7.6099038882075296E-2</v>
+        <v>0.70209169574952002</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-1.0259699097466499</v>
+        <v>-5.1399205316092704</v>
       </c>
       <c r="B36">
-        <v>0.17324678719103501</v>
+        <v>-0.19841263866961001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-1.6409048963024699</v>
+        <v>-3.4633181885649398</v>
       </c>
       <c r="B37">
-        <v>0.23444609583310699</v>
+        <v>13.398730825288601</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1.5951809844628299E-2</v>
+        <v>-6.4100895433222798</v>
       </c>
       <c r="B38">
-        <v>1.44826667992126</v>
+        <v>1.7626718234066301</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-0.85981173951255296</v>
+        <v>-4.46131806393704</v>
       </c>
       <c r="B39">
-        <v>0.20991269540080401</v>
+        <v>12.3534833758057</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>9.9277537086501999E-2</v>
+        <v>-7.29074474400994</v>
       </c>
       <c r="B40">
-        <v>1.84208410635161</v>
+        <v>-7.1219726959669993E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1.4113932677115499</v>
+        <v>-6.3706453881818401</v>
       </c>
       <c r="B41">
-        <v>5.7989049638511103</v>
+        <v>-0.12512034183540999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1.4113932677115499</v>
+        <v>-2.2155919404471001</v>
       </c>
       <c r="B42">
-        <v>6.0692796907903901</v>
+        <v>11.8384243920922</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1.46875749253389</v>
+        <v>-2.9849358459095998</v>
       </c>
       <c r="B43">
-        <v>5.4851539889105201</v>
+        <v>12.893333492581901</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1.5533684241575201</v>
+        <v>-3.2776675239261701</v>
       </c>
       <c r="B44">
-        <v>5.2557220319362097</v>
+        <v>13.5388451564421</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1.59812681911499</v>
+        <v>-6.0702712637853704</v>
       </c>
       <c r="B45">
-        <v>4.2765705054556804</v>
+        <v>12.531236617694599</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1.62374105233748</v>
+        <v>-2.5900634734847698</v>
       </c>
       <c r="B46">
-        <v>4.6388567859368397</v>
+        <v>12.8093971349568</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1.6481803576999301</v>
+        <v>-5.5120814752132903</v>
       </c>
       <c r="B47">
-        <v>3.6450871255052899</v>
+        <v>-0.56183098068790005</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1.6544946184207501</v>
+        <v>-6.2008094037517898</v>
       </c>
       <c r="B48">
-        <v>3.98277077248044</v>
+        <v>0.25253213816879999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1.65470917721777</v>
+        <v>-2.9426265429176302</v>
       </c>
       <c r="B49">
-        <v>3.8026239690227701</v>
+        <v>10.8834889574829</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1.7545300466773199</v>
+        <v>-6.8706294191261801</v>
       </c>
       <c r="B50">
-        <v>3.88853326624037</v>
+        <v>1.2113268060742</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1.8088345136100501</v>
+        <v>-1.7979776445585101</v>
       </c>
       <c r="B51">
-        <v>5.8361076329171704</v>
+        <v>13.5008656186455</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1.9440083680537601</v>
+        <v>-2.1774853862496499</v>
       </c>
       <c r="B52">
-        <v>5.76989586314353</v>
+        <v>12.1337042944514</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1.96209370572822</v>
+        <v>-3.3153547774082002</v>
       </c>
       <c r="B53">
-        <v>5.9012014092851102</v>
+        <v>11.3556627753604</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1.96970541587313</v>
+        <v>-5.6377644574208903</v>
       </c>
       <c r="B54">
-        <v>4.5849991563835797</v>
+        <v>-1.4199494078280701</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1.97891877034438</v>
+        <v>-2.6202998633848398</v>
       </c>
       <c r="B55">
-        <v>3.4411112663412</v>
+        <v>11.558039782182499</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2.0425762268663701</v>
+        <v>-6.4323020092380396</v>
       </c>
       <c r="B56">
-        <v>5.7095360135622997</v>
+        <v>-0.49375883121182002</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2.0521675102143999</v>
+        <v>-4.88116510187771</v>
       </c>
       <c r="B57">
-        <v>3.4947094192562602</v>
+        <v>0.17234148756635001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2.0903142311603098</v>
+        <v>-6.2605788084718696</v>
       </c>
       <c r="B58">
-        <v>3.8282215690111601</v>
+        <v>1.5647638161600199</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2.10832368255672</v>
+        <v>-7.3521527985867703</v>
       </c>
       <c r="B59">
-        <v>3.7716671987708299</v>
+        <v>0.84635361585088997</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2.1170560433356398</v>
+        <v>-6.7198679453291401</v>
       </c>
       <c r="B60">
-        <v>4.1183074265280499</v>
+        <v>1.3815293400623201</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2.25516460321932</v>
+        <v>-6.0163888038541904</v>
       </c>
       <c r="B61">
-        <v>5.2190253187927702</v>
+        <v>0.36785044906804998</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2.2799720725635901</v>
+        <v>-3.7089895580574201</v>
       </c>
       <c r="B62">
-        <v>5.8669261202964904</v>
+        <v>12.255667173160001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2.2816472633359499</v>
+        <v>-5.16454284589223</v>
       </c>
       <c r="B63">
-        <v>3.8558519699910501</v>
+        <v>0.14839596739541999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2.2850270932423999</v>
+        <v>-6.0766210095525999</v>
       </c>
       <c r="B64">
-        <v>3.3988375547915299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.12539477746043001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2.39798707174057</v>
+        <v>-4.3676588481616703</v>
       </c>
       <c r="B65">
-        <v>4.0720544397849903</v>
-      </c>
-      <c r="G65">
-        <v>2.67836329019008</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.82568243690748999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2.4234784032018899</v>
+        <v>-5.6995964804607402</v>
       </c>
       <c r="B66">
-        <v>6.0654755499202802</v>
-      </c>
-      <c r="E66">
-        <v>4.8288247087428804</v>
-      </c>
-      <c r="G66">
-        <v>-0.53072083709650197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.20462275560719</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2.6387673191315102</v>
+        <v>-5.9057187201027599</v>
       </c>
       <c r="B67">
-        <v>6.0420077889604098</v>
-      </c>
-      <c r="E67">
-        <v>1.31719050307274</v>
-      </c>
-      <c r="G67">
-        <f>G66+G65</f>
-        <v>2.147642453093578</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.35655145175243003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2.6545232708539701</v>
+        <v>-4.0437260603494396</v>
       </c>
       <c r="B68">
-        <v>5.4177772873357704</v>
-      </c>
-      <c r="E68">
-        <f>E66+E67</f>
-        <v>6.1460152118156204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12.6562292903055</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2.7623436509985999</v>
+        <v>-5.2696949242234004</v>
       </c>
       <c r="B69">
-        <v>3.7911806767623899</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.58424761998982999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2.7728095557539998</v>
+        <v>-3.3062708924594402</v>
       </c>
       <c r="B70">
-        <v>5.2385480068487196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12.1277457929055</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2.7786043720449398</v>
+        <v>-3.00012331189517</v>
       </c>
       <c r="B71">
-        <v>3.6311437259770898</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10.4179461604548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2.7910680483284902</v>
+        <v>-1.41192295702982</v>
       </c>
       <c r="B72">
-        <v>4.2069349551543498</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12.4646131964225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2.7914561643473301</v>
+        <v>-6.1513701471412396</v>
       </c>
       <c r="B73">
-        <v>4.8615063837997203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.2293798670957099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2.7924116827483698</v>
+        <v>-2.5954260331983998</v>
       </c>
       <c r="B74">
-        <v>3.4009968550588199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.491885160844699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2.80491843370636</v>
+        <v>-4.4109488048133496</v>
       </c>
       <c r="B75">
-        <v>5.0407157661337498</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12.875660969093801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2.82321179784276</v>
+        <v>-5.8602620933464697</v>
       </c>
       <c r="B76">
-        <v>5.4261197039471796</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.26190878621351998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2.8541736404604801</v>
+        <v>-7.3339387816218</v>
       </c>
       <c r="B77">
-        <v>3.5531916378178199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.10335253259858999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2.97513027442348</v>
+        <v>-6.6037502614096102</v>
       </c>
       <c r="B78">
-        <v>3.6406725401562201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.19430068769098</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2.92875968731847</v>
+        <v>-2.6671182108540199</v>
       </c>
       <c r="B79">
-        <v>4.8612058518227999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11.9934438925842</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>3.2464652599759698</v>
+        <v>-2.2787922974595798</v>
       </c>
       <c r="B80">
-        <v>4.1149651203127799</v>
+        <v>11.764609242855499</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2.6643260184515101</v>
+        <v>-7.3828139677943403</v>
       </c>
       <c r="B81">
-        <v>4.1593226909029202</v>
+        <v>0.46521235537323002</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>3.3207396501292599</v>
+        <v>-2.5364713496658902</v>
       </c>
       <c r="B82">
-        <v>5.6547783507923004</v>
+        <v>11.9544271901397</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>3.3551823985645899</v>
+        <v>-3.31972959932784</v>
       </c>
       <c r="B83">
-        <v>3.50279525768897</v>
+        <v>11.5629625308641</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2.8822990863984601</v>
+        <v>-2.8290524422861201</v>
       </c>
       <c r="B84">
-        <v>4.6173317037320603</v>
+        <v>15.679493033614399</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>2.67836329019008</v>
+        <v>-3.42709531585154</v>
       </c>
       <c r="B85">
-        <v>4.8288247087428804</v>
+        <v>12.727676147625001</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3.6322323877359</v>
+        <v>-6.2561599937253796</v>
       </c>
       <c r="B86">
-        <v>3.5539036030883699</v>
+        <v>0.30753302344243</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>3.40405687718079</v>
+        <v>-6.0907948406082104</v>
       </c>
       <c r="B87">
-        <v>3.8135102895466</v>
+        <v>0.44695921431009999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>3.66958836639113</v>
+        <v>-7.4400538838803003</v>
       </c>
       <c r="B88">
-        <v>3.7055644565959098</v>
+        <v>0.11694764982853</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>3.9005558334303201</v>
+        <v>-5.8469118227361498</v>
       </c>
       <c r="B89">
-        <v>3.5035272884874198</v>
+        <v>0.49685307558919001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>3.3922624153374201</v>
+        <v>-2.4844098126494498</v>
       </c>
       <c r="B90">
-        <v>5.2320191126690903</v>
+        <v>13.002821566884901</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>4.01463768508175</v>
+        <v>-6.10584449996675</v>
       </c>
       <c r="B91">
-        <v>4.0425781322885799</v>
+        <v>1.72239201556618</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>3.6721348662602198</v>
+        <v>-1.01134454921988</v>
       </c>
       <c r="B92">
-        <v>5.4890974006191504</v>
+        <v>11.5804846843749</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>3.9276788890313399</v>
+        <v>-8.5971148159365391</v>
       </c>
       <c r="B93">
-        <v>4.4641380065629201</v>
+        <v>0.88765423018019995</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>4.15336019624743</v>
+        <v>-2.5562771488656599</v>
       </c>
       <c r="B94">
-        <v>3.4061431164882099</v>
+        <v>11.4018065083312</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>4.0802612749867198</v>
+        <v>-5.1832631118912103</v>
       </c>
       <c r="B95">
-        <v>5.2626422241783004</v>
+        <v>-0.43609479037998</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>3.82295805706244</v>
+        <v>-6.0800077165568798</v>
       </c>
       <c r="B96">
-        <v>5.9404173325442997</v>
+        <v>0.47964444808301998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-5.0628929797563904</v>
+      </c>
+      <c r="B97">
+        <v>0.89705179229009002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-3.26848438461387</v>
+      </c>
+      <c r="B98">
+        <v>11.9880105734713</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-6.8698611978644699</v>
+      </c>
+      <c r="B99">
+        <v>-0.34117127581026002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-6.9062030906158496</v>
+      </c>
+      <c r="B100">
+        <v>1.72714480463022</v>
       </c>
     </row>
   </sheetData>
